--- a/BackTest/2020-01-24 BackTest XRP.xlsx
+++ b/BackTest/2020-01-24 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3850.142570909974</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3850.142570909974</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-55726.64192909002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>56623.31157090999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>61982.92534442999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>61867.74534442999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>61867.74534442999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>129137.88584443</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>129107.25814443</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>129107.25814443</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>129787.68864443</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>98040.18164442999</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>98703.14934442998</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>83792.63784442999</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>87500.83944442999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>68789.74604442999</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-64529.15455557</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-272406.67075557</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-271389.36075557</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-44302.97705556999</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-30140.60525556999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>67258.92984443001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>37878.66844443</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>188670.35354443</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>172158.80274443</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>184066.81104443</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>219213.01054443</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>223366.31054443</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>319097.70254443</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>318948.05324443</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>315645.86014443</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>316234.12474443</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>338315.61964443</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>331307.63264443</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>315434.69814443</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>300130.75374443</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>322808.81950414</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>361160.87340414</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>260755.41600414</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>263141.61770414</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>251640.61770414</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>252717.11224488</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>251486.63654488</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>434351.4757931901</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>492248.2446931901</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>565496.7143931901</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>554950.1120931901</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>554950.1120931901</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>552381.1114931901</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>552550.8141931901</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>550671.56449319</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>553590.54489319</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>568854.36919319</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>558648.00549319</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>809750.9894931901</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>793370.7043931901</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>792449.6343931902</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>744035.6946931902</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>746397.4631931902</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>731326.9061931901</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>728114.7710931902</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>728298.6788931902</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>725807.9090931902</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>701853.9305931902</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>700730.8375931903</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>759359.3225931902</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>792983.8362931903</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>882439.38879319</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>880726.51329319</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>882515.9842931901</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>873351.6791931901</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>873731.0993931901</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>875693.9924931901</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>870794.8975931901</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>870980.4263501401</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>870980.4263501401</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>870256.7992501401</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>863803.01255014</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>899272.4277501401</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>893578.0531501401</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>893578.0531501401</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>893855.6859501401</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>893855.6859501401</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>893355.5725501401</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>814879.79705014</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>814879.79705014</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>814879.79705014</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>927176.7779501399</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>927176.7779501399</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>933067.6832582699</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>933069.6832582699</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>933069.6832582699</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>918062.8970582699</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>914900.00635827</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>898900.00635827</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>897909.57855827</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>901078.62085827</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>840474.34905827</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>840562.84905827</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>839555.35715827</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>842580.57995827</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>807159.64325827</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>812805.94174367</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>809805.94174367</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>810151.35724367</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>809966.6509436701</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>809977.6509436701</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>809977.6509436701</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>809436.6509436701</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>809436.6509436701</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>813905.5221436701</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>678471.9770436701</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>678473.9770436701</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>676473.9770436701</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>676584.8417886802</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>676576.8417886802</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>682248.7455886801</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>645005.2979886802</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>645625.6048886802</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>645625.6048886802</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>645692.6048886802</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>645010.8628886802</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>646061.5220886802</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>646068.5220886802</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>644191.4443886802</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>647905.6085886802</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>647024.9035886802</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>645740.1853886802</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>656475.7711466402</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>655449.2853466402</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>655449.2853466402</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>656481.9774466401</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>657595.6598466402</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>661791.3220466402</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>660484.5794466402</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>657401.1548466402</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>613559.4568466402</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>574195.5581466403</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>574195.5581466403</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>575470.2411874603</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>575470.2411874603</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>578854.9574430803</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>570692.0113430803</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>580692.0113430803</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>580692.0113430803</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>571326.5692466403</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>571326.5692466403</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>571246.5692466403</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>571616.6965466404</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>571616.6965466404</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>569788.8717466404</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>569788.8717466404</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>587294.6556868304</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>587294.6556868304</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>582080.1446868303</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>596862.3473270204</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>596178.8994270203</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>602748.8334270203</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>602695.8334270203</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>608972.2622270203</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>613941.6515270204</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>606815.9609270204</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>530868.2982270204</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>538554.4073270204</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>538554.4073270204</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>540239.9944270204</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>540239.9944270204</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>539227.9136270204</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>576996.9417446804</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>576996.9417446804</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>574605.1206446805</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>574605.1206446805</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>582964.3608446805</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>589059.5364544304</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>589232.6011544304</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>570507.0573544304</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>569241.6043544305</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>713379.2870544305</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>721534.7197544305</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>721534.7197544305</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>797055.5466544305</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>796874.3543544305</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>796801.4098544305</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>797405.2421544305</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>774127.4459544305</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>775044.4375544306</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>710219.5992544305</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>693867.4810544305</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>691120.4153544304</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>682343.2464544304</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>686753.0041544304</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>700420.3035544304</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>700920.3035544304</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>401694.7362890103</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>401694.7362890103</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>381421.4414627103</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>352487.8941627103</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>355288.6845091703</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>318773.0809091703</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>323263.5526091703</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>323263.5526091703</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>318930.1440846403</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>318139.8249846403</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>319662.1772846403</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>281618.6815846403</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>286841.5287846403</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>286841.5287846403</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>308164.8314846403</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>292395.3145846403</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>292395.3145846403</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>305190.7002583403</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>379868.8121391804</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>379868.8121391804</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>311704.1803391804</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>311704.1803391804</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>326253.2050391804</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>326438.8026635304</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>317920.2773635304</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>320004.6405635304</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>320004.6405635304</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>309443.7576635304</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>309523.9273635304</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>309517.7428635305</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>309517.7428635305</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>309517.7428635305</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>309611.6798635304</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>277966.2654635304</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>284864.5447717304</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>127048.1060717304</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>95886.94347173044</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>125123.2777717304</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>225614.4997717305</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>225614.4997717305</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>318692.1827717305</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>315807.2001717305</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>296768.1527717305</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>180558.8119717305</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-135171.5347282695</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-394714.7015282695</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-337108.9936282695</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-354960.7992282695</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-354960.7992282695</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-354960.7992282695</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-403360.7992282695</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-326430.2322282696</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-311065.4321188296</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-315628.3316188296</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-315628.3316188296</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-290540.7933188296</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-314427.8890188296</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-313427.8890188296</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-313427.8890188296</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-426932.7086188296</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-569223.9562188296</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-569223.9562188296</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-569223.9562188296</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-511729.1908188296</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-511729.1908188296</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-588304.0829188296</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-575219.1301188297</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-609402.9832188296</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-659083.1413375696</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-591962.0073578795</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-605409.2448578796</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-605409.2448578796</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-942277.6454805196</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1076938.44678052</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1314378.561980519</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1624316.236180519</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1366362.285280519</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1433625.639070269</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1208454.958870269</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-1272988.972495339</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1357681.304795339</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1357681.304795339</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1299700.604195339</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-1249126.762720409</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1243911.988820409</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1256738.460192969</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1202944.423192969</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1202944.423192969</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1298886.659192969</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1278774.385692969</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1278774.385692969</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1104063.818620899</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -37873,10 +37873,14 @@
         <v>-6070360.740917283</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
@@ -37906,11 +37910,19 @@
         <v>-6085974.697017283</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37939,11 +37951,19 @@
         <v>-6082989.802317283</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37972,11 +37992,19 @@
         <v>-6189632.990217283</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38005,11 +38033,19 @@
         <v>-6189632.990217283</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38038,11 +38074,19 @@
         <v>-6189632.990217283</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38071,11 +38115,19 @@
         <v>-6227354.397817283</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38104,11 +38156,19 @@
         <v>-6227354.397817283</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38137,11 +38197,19 @@
         <v>-6226419.999217283</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38170,11 +38238,19 @@
         <v>-6214818.623997813</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38203,11 +38279,19 @@
         <v>-6219274.959197813</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38236,11 +38320,19 @@
         <v>-6219274.959197813</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38269,11 +38361,19 @@
         <v>-6179572.754790602</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +38402,19 @@
         <v>-6180578.046290603</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +38443,19 @@
         <v>-6232149.837590602</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38368,11 +38484,19 @@
         <v>-6217788.724990603</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38401,11 +38525,19 @@
         <v>-6241477.813190603</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +38566,19 @@
         <v>-6219608.510190602</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38467,11 +38607,19 @@
         <v>-6299763.828890602</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +38648,19 @@
         <v>-6392232.072590603</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38533,11 +38689,19 @@
         <v>-6387668.854138442</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38566,11 +38730,19 @@
         <v>-6433297.453938862</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38599,11 +38771,19 @@
         <v>-6672269.542438862</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38632,11 +38812,19 @@
         <v>-6591190.249338862</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38665,11 +38853,19 @@
         <v>-6671706.642838862</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38698,15 +38894,17 @@
         <v>-6671706.642838862</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1161" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1161" t="n">
@@ -38737,12 +38935,14 @@
         <v>-6702130.930005211</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1162" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38776,12 +38976,14 @@
         <v>-6702130.930005211</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1163" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38815,12 +39017,14 @@
         <v>-6699609.371105212</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1164" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38854,12 +39058,14 @@
         <v>-6680824.590705212</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1165" t="n">
         <v>260.4</v>
       </c>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38893,12 +39099,14 @@
         <v>-6680824.590705212</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1166" t="n">
         <v>260.9</v>
       </c>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38932,12 +39140,14 @@
         <v>-6680824.590705212</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1167" t="n">
         <v>260.9</v>
       </c>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38971,12 +39181,14 @@
         <v>-6680810.859105213</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1168" t="n">
         <v>260.9</v>
       </c>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39010,12 +39222,14 @@
         <v>-6690141.824452703</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1169" t="n">
         <v>261.1</v>
       </c>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39049,12 +39263,14 @@
         <v>-6714966.652452703</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1170" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39088,12 +39304,14 @@
         <v>-6704966.652452703</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1171" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39127,12 +39345,14 @@
         <v>-6615338.976158473</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1172" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39166,12 +39386,14 @@
         <v>-6640786.555054863</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1173" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39205,12 +39427,14 @@
         <v>-6552425.951454863</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1174" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39244,12 +39468,14 @@
         <v>-6540274.111854863</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1175" t="n">
         <v>260.5</v>
       </c>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39283,12 +39509,14 @@
         <v>-6594019.064858533</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1176" t="n">
         <v>260.6</v>
       </c>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39322,12 +39550,14 @@
         <v>-6594019.064858533</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1177" t="n">
         <v>260.4</v>
       </c>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39361,12 +39591,14 @@
         <v>-6592589.216342163</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1178" t="n">
         <v>260.4</v>
       </c>
-      <c r="J1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39400,12 +39632,14 @@
         <v>-6555713.327262203</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1179" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39439,12 +39673,14 @@
         <v>-6566476.369403973</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1180" t="n">
         <v>261</v>
       </c>
-      <c r="J1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39478,12 +39714,14 @@
         <v>-6564412.618703973</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1181" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39517,12 +39755,14 @@
         <v>-6548519.855303974</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1182" t="n">
         <v>261.1</v>
       </c>
-      <c r="J1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39556,12 +39796,14 @@
         <v>-6533658.374103974</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1183" t="n">
         <v>261.3</v>
       </c>
-      <c r="J1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39595,10 +39837,14 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39632,10 +39878,14 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39669,10 +39919,14 @@
         <v>-6660890.406403974</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39706,10 +39960,14 @@
         <v>-6663388.856600944</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39743,10 +40001,14 @@
         <v>-6663388.856600944</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39780,10 +40042,14 @@
         <v>-6663388.856600944</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39817,10 +40083,14 @@
         <v>-6663388.856600944</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>261.3</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39832,6 +40102,6 @@
       <c r="M1190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest XRP.xlsx
+++ b/BackTest/2020-01-24 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3850.142570909974</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3850.142570909974</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-55726.64192909002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>56623.31157090999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>61982.92534442999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>61867.74534442999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>61867.74534442999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>129137.88584443</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>129107.25814443</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>129107.25814443</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>129787.68864443</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>98040.18164442999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>98703.14934442998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>83792.63784442999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>87500.83944442999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>68789.74604442999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-64529.15455557</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-272406.67075557</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-271389.36075557</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-44302.97705556999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-30140.60525556999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>67258.92984443001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>37878.66844443</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>188670.35354443</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>172158.80274443</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>184066.81104443</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>219213.01054443</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>223366.31054443</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>319097.70254443</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>318948.05324443</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>315645.86014443</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>316234.12474443</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>338315.61964443</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>331307.63264443</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>315434.69814443</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>300130.75374443</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>322808.81950414</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>361160.87340414</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>260755.41600414</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>263141.61770414</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>251640.61770414</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>558648.00549319</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>809750.9894931901</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>793370.7043931901</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>792449.6343931902</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>744035.6946931902</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>746397.4631931902</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>731326.9061931901</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>728298.6788931902</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>725807.9090931902</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>882515.9842931901</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>870980.4263501401</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>863803.01255014</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>814879.79705014</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>927176.7779501399</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>933067.6832582699</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>839555.35715827</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>661791.3220466402</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>657401.1548466402</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>582964.3608446805</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>700420.3035544304</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>700920.3035544304</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>355288.6845091703</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>323263.5526091703</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>323263.5526091703</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>318930.1440846403</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>318139.8249846403</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>319662.1772846403</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>281618.6815846403</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>286841.5287846403</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>286841.5287846403</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>308164.8314846403</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>292395.3145846403</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>292395.3145846403</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>305190.7002583403</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>379868.8121391804</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>311704.1803391804</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>311704.1803391804</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>326253.2050391804</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>326438.8026635304</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>317920.2773635304</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>320004.6405635304</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>320004.6405635304</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>309443.7576635304</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>309523.9273635304</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>309517.7428635305</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>309517.7428635305</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>309517.7428635305</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>309611.6798635304</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>277966.2654635304</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>284864.5447717304</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>127048.1060717304</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>95886.94347173044</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>125123.2777717304</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>225614.4997717305</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>225614.4997717305</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>318692.1827717305</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>315807.2001717305</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>296768.1527717305</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>180558.8119717305</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-135171.5347282695</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-394714.7015282695</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-337108.9936282695</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-354960.7992282695</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-354960.7992282695</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-354960.7992282695</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-403360.7992282695</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-326430.2322282696</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-311065.4321188296</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-315628.3316188296</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-315628.3316188296</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-290540.7933188296</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-314427.8890188296</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-313427.8890188296</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-313427.8890188296</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-426932.7086188296</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-569223.9562188296</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-569223.9562188296</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-569223.9562188296</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-511729.1908188296</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-511729.1908188296</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-588304.0829188296</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-575219.1301188297</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-609402.9832188296</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-659083.1413375696</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1624316.236180519</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1039430.21801798</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1007680.182246309</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1069303.26404631</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1087841.95934631</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1090933.510246309</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1072702.915846309</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-1078801.505046309</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-1089719.41124631</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1084352.51124631</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1095608.62464631</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1071417.47235446</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1024119.80381543</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1032012.41731543</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1009493.31737679</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-1164661.73549912</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-1150927.84849912</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-1179572.430799119</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1172804.225099119</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1182804.225099119</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1124802.548699119</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1124802.548699119</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1164633.187199119</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1145662.352399119</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1146755.047499119</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-1146755.047499119</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1173281.673199119</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-1158535.253899119</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-1147179.465599119</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1210409.166726509</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-1205965.744526509</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-1248398.760326509</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-1333088.544626509</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-1333088.544626509</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-1331287.179526509</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-1330193.622475199</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-1330563.622475199</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1330563.622475199</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-1425082.281375199</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-1423854.135455689</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-1405485.161775199</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-1405485.161775199</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-1588882.301175199</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-1614782.045775199</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-1591778.44280827</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-1591826.60709796</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-1591826.60709796</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-1590828.94207461</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-1596563.39977461</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-1595341.65067461</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-1595341.65067461</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-1601056.85537461</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-1573089.314174609</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-1534636.66627461</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-1498406.216874609</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-1501110.720074609</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-1500809.606874609</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-1500809.606874609</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-1495653.328874609</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-1505621.80167461</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-1505621.80167461</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-1507405.302974609</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-1557905.369287109</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-1557833.858387109</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-1557833.858387109</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-1562574.851627319</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-1562534.851627319</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1639921.540327319</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1700451.361227319</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1811656.497127319</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-2851445.236189449</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-2874251.942889449</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-2874251.942889449</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-2864301.404489449</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-2902348.559389449</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-2888150.883604099</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-3037785.044299029</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-3115016.602436779</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-3115016.602436779</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-3087121.353200979</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-3115159.531100979</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-3011110.357391709</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-2956016.368804398</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-2955657.054204398</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-2957353.870104398</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-2851490.607304398</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-3123737.978604398</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-2958982.130604398</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-3011468.448525148</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-3011468.448525148</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-3095281.296125148</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-3088145.213225148</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-3088117.911039768</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-3112884.038954388</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-3112884.038954388</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-3101884.038954388</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-3097905.254054388</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-3098525.154554388</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-3136098.468254388</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-2990179.999154388</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-3025442.494154389</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-3020640.408854389</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-3018759.295235129</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-3044052.372335128</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-3041498.971535129</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-3041498.971535129</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-3048470.588535129</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-3028971.498035129</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-2971143.042335129</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-2826117.292135129</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-2832337.972835129</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-2831399.006335129</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-2830952.006335129</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-2880857.913335129</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-2898724.712002319</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-2994243.587202319</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-2994243.587202319</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-2982419.622902319</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-3092667.561002319</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-3086646.763702319</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-3052225.473172149</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-3035197.237972149</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-3050184.839472149</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-2998923.891872148</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-3042708.788472149</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-3082952.157772148</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-3247135.612472149</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-3712321.662474568</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-3676294.361674569</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-3693222.025874569</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -37312,10 +37312,14 @@
         <v>-5998696.886752982</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>262</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>262</v>
+      </c>
       <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
@@ -37348,8 +37352,14 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37381,8 +37391,14 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37414,8 +37430,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37447,8 +37469,14 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37480,8 +37508,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37513,8 +37547,14 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37546,8 +37586,14 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37579,8 +37625,14 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37612,8 +37664,14 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37645,8 +37703,14 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37678,8 +37742,14 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37708,11 +37778,19 @@
         <v>-6143361.863676202</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37741,11 +37819,19 @@
         <v>-6071349.349617283</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>261</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37774,11 +37860,19 @@
         <v>-6070224.521917283</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37807,11 +37901,19 @@
         <v>-6067900.265117283</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37840,11 +37942,19 @@
         <v>-6070557.651617283</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>262</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37879,9 +37989,13 @@
         <v>261.3</v>
       </c>
       <c r="J1136" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="K1136" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37916,11 +38030,11 @@
         <v>261.5</v>
       </c>
       <c r="J1137" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1137" t="n">
@@ -37957,11 +38071,11 @@
         <v>261.3</v>
       </c>
       <c r="J1138" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1138" t="n">
@@ -37998,11 +38112,11 @@
         <v>261.5</v>
       </c>
       <c r="J1139" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1139" t="n">
@@ -38033,13 +38147,11 @@
         <v>-6189632.990217283</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1140" t="n">
-        <v>261.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38080,7 +38192,7 @@
         <v>261.1</v>
       </c>
       <c r="J1141" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38121,7 +38233,7 @@
         <v>261.1</v>
       </c>
       <c r="J1142" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38162,7 +38274,7 @@
         <v>260.8</v>
       </c>
       <c r="J1143" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38203,7 +38315,7 @@
         <v>260.8</v>
       </c>
       <c r="J1144" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38244,7 +38356,7 @@
         <v>261.2</v>
       </c>
       <c r="J1145" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38285,7 +38397,7 @@
         <v>261.3</v>
       </c>
       <c r="J1146" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38326,7 +38438,7 @@
         <v>261</v>
       </c>
       <c r="J1147" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38367,7 +38479,7 @@
         <v>261</v>
       </c>
       <c r="J1148" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38408,7 +38520,7 @@
         <v>261.5</v>
       </c>
       <c r="J1149" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -38449,7 +38561,7 @@
         <v>261.3</v>
       </c>
       <c r="J1150" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -38490,7 +38602,7 @@
         <v>261</v>
       </c>
       <c r="J1151" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38531,7 +38643,7 @@
         <v>261.1</v>
       </c>
       <c r="J1152" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -38572,7 +38684,7 @@
         <v>261</v>
       </c>
       <c r="J1153" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -38613,7 +38725,7 @@
         <v>261.1</v>
       </c>
       <c r="J1154" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -38654,7 +38766,7 @@
         <v>260.8</v>
       </c>
       <c r="J1155" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -38695,7 +38807,7 @@
         <v>260.7</v>
       </c>
       <c r="J1156" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -38736,7 +38848,7 @@
         <v>261.1</v>
       </c>
       <c r="J1157" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -38777,7 +38889,7 @@
         <v>260.7</v>
       </c>
       <c r="J1158" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -38818,7 +38930,7 @@
         <v>260.3</v>
       </c>
       <c r="J1159" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -38859,7 +38971,7 @@
         <v>260.4</v>
       </c>
       <c r="J1160" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -38900,7 +39012,7 @@
         <v>260.3</v>
       </c>
       <c r="J1161" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -38941,7 +39053,7 @@
         <v>260.3</v>
       </c>
       <c r="J1162" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -38982,7 +39094,7 @@
         <v>260.2</v>
       </c>
       <c r="J1163" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39023,7 +39135,7 @@
         <v>260.2</v>
       </c>
       <c r="J1164" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39064,7 +39176,7 @@
         <v>260.4</v>
       </c>
       <c r="J1165" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39105,7 +39217,7 @@
         <v>260.9</v>
       </c>
       <c r="J1166" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39146,7 +39258,7 @@
         <v>260.9</v>
       </c>
       <c r="J1167" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39187,7 +39299,7 @@
         <v>260.9</v>
       </c>
       <c r="J1168" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39228,7 +39340,7 @@
         <v>261.1</v>
       </c>
       <c r="J1169" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39269,7 +39381,7 @@
         <v>260.7</v>
       </c>
       <c r="J1170" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39310,7 +39422,7 @@
         <v>260.2</v>
       </c>
       <c r="J1171" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39351,7 +39463,7 @@
         <v>260.3</v>
       </c>
       <c r="J1172" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39392,7 +39504,7 @@
         <v>260.7</v>
       </c>
       <c r="J1173" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39433,7 +39545,7 @@
         <v>260.2</v>
       </c>
       <c r="J1174" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39474,7 +39586,7 @@
         <v>260.5</v>
       </c>
       <c r="J1175" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39515,7 +39627,7 @@
         <v>260.6</v>
       </c>
       <c r="J1176" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39556,7 +39668,7 @@
         <v>260.4</v>
       </c>
       <c r="J1177" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39597,7 +39709,7 @@
         <v>260.4</v>
       </c>
       <c r="J1178" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39638,7 +39750,7 @@
         <v>260.7</v>
       </c>
       <c r="J1179" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -39679,7 +39791,7 @@
         <v>261</v>
       </c>
       <c r="J1180" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39720,7 +39832,7 @@
         <v>260.7</v>
       </c>
       <c r="J1181" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -39755,13 +39867,11 @@
         <v>-6548519.855303974</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>261.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -39796,13 +39906,11 @@
         <v>-6533658.374103974</v>
       </c>
       <c r="H1183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1183" t="n">
-        <v>261.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -39837,13 +39945,11 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1184" t="n">
-        <v>261.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -39878,13 +39984,11 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1185" t="n">
-        <v>261.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39925,7 +40029,7 @@
         <v>261.2</v>
       </c>
       <c r="J1186" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -39966,7 +40070,7 @@
         <v>261</v>
       </c>
       <c r="J1187" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40007,7 +40111,7 @@
         <v>260.8</v>
       </c>
       <c r="J1188" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40048,7 +40152,7 @@
         <v>260.8</v>
       </c>
       <c r="J1189" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40089,7 +40193,7 @@
         <v>260.8</v>
       </c>
       <c r="J1190" t="n">
-        <v>261.3</v>
+        <v>262</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40102,6 +40206,6 @@
       <c r="M1190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest XRP.xlsx
+++ b/BackTest/2020-01-24 BackTest XRP.xlsx
@@ -1573,7 +1573,7 @@
         <v>37878.66844443</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>188670.35354443</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>172158.80274443</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>184066.81104443</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>219213.01054443</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>223366.31054443</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>319097.70254443</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>318948.05324443</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>315645.86014443</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>316234.12474443</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>338315.61964443</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>331307.63264443</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>315434.69814443</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>346082.14924443</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>300130.75374443</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>322808.81950414</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>361160.87340414</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>360891.60440414</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>340263.88540414</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>329791.34980414</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>260755.41600414</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>263141.61770414</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>251640.61770414</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>255762.24294488</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>254325.36154488</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>255704.21084488</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>239997.53214488</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>239997.53214488</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>239997.53214488</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>252717.11224488</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>252717.11224488</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>249642.11174488</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>251486.63654488</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>251486.63654488</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>236372.18554488</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>271667.71614488</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>369298.6514448801</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>437823.4403931901</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>434351.4757931901</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>434351.4757931901</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>437583.0461931901</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>437829.0461931901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>492248.2446931901</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>565496.7143931901</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>554950.1120931901</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>554950.1120931901</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>552381.1114931901</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>552550.8141931901</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>550671.56449319</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>553590.54489319</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>568854.36919319</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>558648.00549319</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>808782.00549319</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>809750.9894931901</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>793370.7043931901</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>792449.6343931902</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>744035.6946931902</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>746397.4631931902</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>731326.9061931901</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>728114.7710931902</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>728298.6788931902</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>750639.1305931902</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>725807.9090931902</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>701853.9305931902</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>700730.8375931903</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>759359.3225931902</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>792983.8362931903</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>792983.8362931903</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>795308.5778931902</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>794408.9890931902</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>794223.0814931901</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>789776.7989931902</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>789776.7989931902</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>789776.7989931902</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>831500.4351931901</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>831500.4351931901</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>801983.6655931901</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>801983.6655931901</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>801863.9073931901</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>801426.1823931901</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>808429.3597931901</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>808770.3230931901</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>808698.0186931901</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>804038.1187931901</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>827259.9644931901</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>849613.95389319</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>849650.85759319</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>838555.09739319</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>837555.09739319</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>833773.5833931901</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>833096.1745931901</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>882435.3383931901</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>882439.38879319</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>873351.6791931901</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>873731.0993931901</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>863803.01255014</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>897062.16475014</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>897062.16475014</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>893578.0531501401</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>893855.6859501401</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>893355.5725501401</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>892393.75035014</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>892393.75035014</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>769908.9889501401</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>786326.4639501401</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>808780.67135014</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>811415.68275014</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>814879.79705014</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>927176.7779501399</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>933067.6832582699</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>933069.6832582699</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>933069.6832582699</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>918062.8970582699</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>914900.00635827</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>898900.00635827</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>897909.57855827</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>897909.57855827</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>899384.42415827</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>900086.5858582701</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>899971.51035827</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>901078.62085827</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>840474.34905827</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>840562.84905827</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>839555.35715827</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>840581.0479582699</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>838586.9870582699</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>842519.7707582699</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>842580.57995827</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>842580.57995827</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>807159.64325827</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>807159.64325827</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>812805.94174367</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>809805.94174367</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>810151.35724367</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>809966.6509436701</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>809977.6509436701</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>809977.6509436701</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>809436.6509436701</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>809436.6509436701</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>813905.5221436701</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>678471.9770436701</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>678473.9770436701</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>676473.9770436701</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>676584.8417886802</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>676576.8417886802</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>676667.4223886802</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>675965.4471886802</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>682235.4471886802</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>684880.2350886802</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>682248.7455886801</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>645005.2979886802</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>645625.6048886802</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>645625.6048886802</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>645692.6048886802</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>645010.8628886802</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>646061.5220886802</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>646068.5220886802</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>644191.4443886802</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>647905.6085886802</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>647024.9035886802</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>645740.1853886802</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>656475.7711466402</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>655449.2853466402</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>655449.2853466402</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>656507.2821466401</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>656481.9774466401</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>657595.6598466402</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>656776.3220466402</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>661776.3220466402</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>661791.3220466402</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>660484.5794466402</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>657401.1548466402</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>612803.8824466402</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>613559.4568466402</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>575211.7248466403</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>575211.7248466403</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>574195.5581466403</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>574195.5581466403</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>577150.4577874603</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>575470.2411874603</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>575470.2411874603</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>578854.9574430803</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>570692.0113430803</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>580692.0113430803</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>580692.0113430803</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>571326.5692466403</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>571326.5692466403</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>571246.5692466403</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>571616.6965466404</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>571616.6965466404</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>569788.8717466404</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>569788.8717466404</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>587294.6556868304</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>587294.6556868304</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>582080.1446868303</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>596862.3473270204</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>596178.8994270203</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>602748.8334270203</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>602695.8334270203</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>602695.8334270203</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>608972.2622270203</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>613941.6515270204</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>606815.9609270204</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>530868.2982270204</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>538554.4073270204</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>538554.4073270204</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>540239.9944270204</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>540239.9944270204</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>539227.9136270204</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>576996.9417446804</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>576996.9417446804</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>574605.1206446805</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>574605.1206446805</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>582964.3608446805</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>582956.5608446804</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>590059.5364544304</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>589059.5364544304</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>589257.6011544304</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>589232.6011544304</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>570507.0573544304</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>569023.0308544304</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>569241.6043544305</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>713379.2870544305</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>721534.7197544305</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>721534.7197544305</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>797055.5466544305</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>796874.3543544305</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>796801.4098544305</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>797405.2421544305</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>774127.4459544305</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>775412.1140544305</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>775044.4375544306</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>710219.5992544305</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>693867.4810544305</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>691120.4153544304</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>682343.2464544304</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>686753.0041544304</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>679499.0026544303</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>704098.4523544303</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>704098.4523544303</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>704098.4523544303</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>752350.3210544303</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>704134.8454544303</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>700420.3035544304</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>700920.3035544304</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>690695.7201544304</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>571639.8090590304</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>571639.8090590304</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>575888.0607698504</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>557587.0199698504</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>509317.0088698504</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>524674.2907698504</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>509115.6823698503</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>405355.5569698503</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>423666.2904698503</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>379997.4359698503</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>379997.4359698503</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>401694.7362890103</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>381658.3353391804</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>340511.6594391804</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>341235.2994391804</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>340554.1772391804</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>340554.1772391804</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>322562.3911391804</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>316414.1822391804</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>325443.7576635304</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>277966.2654635304</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1039430.21801798</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1007680.182246309</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1069303.26404631</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1087841.95934631</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1090933.510246309</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1072702.915846309</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-1078801.505046309</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-1089719.41124631</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1084352.51124631</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1095608.62464631</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1071417.47235446</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1024119.80381543</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1032012.41731543</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1009493.31737679</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-1164661.73549912</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-1150927.84849912</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-1179572.430799119</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1172447.764799119</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1172804.225099119</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1182804.225099119</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1124802.548699119</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1124802.548699119</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1164633.187199119</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1145662.352399119</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1146755.047499119</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-1146755.047499119</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1173281.673199119</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-1158535.253899119</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-1147179.465599119</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-1156459.945899119</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-1156584.654726509</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-1195501.431226509</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1172284.108726509</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1210409.166726509</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-1205965.744526509</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-1248398.760326509</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-1333088.544626509</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-1333088.544626509</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-1331287.179526509</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-1330193.622475199</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-1330563.622475199</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1330563.622475199</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-1425082.281375199</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-1423854.135455689</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-1405485.161775199</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-1405485.161775199</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-1588882.301175199</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-1614782.045775199</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-1570868.7941564</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-1591778.44280827</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-1591826.60709796</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-1591826.60709796</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-1590828.94207461</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-1596563.39977461</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-1595341.65067461</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-1595341.65067461</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-1601056.85537461</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-1573089.314174609</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-1534636.66627461</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-1498406.216874609</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-1501110.720074609</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-1500809.606874609</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-1500809.606874609</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-1495653.328874609</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-1505621.80167461</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-1505621.80167461</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-1491808.676974609</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-1507405.302974609</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-1557905.369287109</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-1557833.858387109</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-1557833.858387109</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-1562574.851627319</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-1562534.851627319</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1562799.236727319</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1639921.540327319</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1700451.361227319</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1811656.497127319</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-2851445.236189449</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-2874251.942889449</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-2874251.942889449</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-2864301.404489449</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-2902348.559389449</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-2888150.883604099</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-3037785.044299029</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-3115016.602436779</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-3115016.602436779</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-3087121.353200979</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-3115159.531100979</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-3011110.357391709</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-2956016.368804398</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-2955657.054204398</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-2957353.870104398</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-2851490.607304398</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-3123737.978604398</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-2980355.026704398</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-2958982.130604398</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-3014943.078904398</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-3011468.448525148</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-3011468.448525148</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-3095281.296125148</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-3088145.213225148</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-3088117.911039768</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-3112884.038954388</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-3112884.038954388</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-3101884.038954388</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-3097905.254054388</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-3098525.154554388</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-3136098.468254388</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-2990179.999154388</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-3025442.494154389</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-3020640.408854389</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-3018759.295235129</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-3044052.372335128</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-3041498.971535129</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-3041498.971535129</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-3048470.588535129</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-3028971.498035129</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-2971143.042335129</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-2826117.292135129</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-2826167.292135129</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-2832337.972835129</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-2831399.006335129</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-2830952.006335129</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-2880857.913335129</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-2898724.712002319</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-2994243.587202319</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-2994243.587202319</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-2982419.622902319</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-3092667.561002319</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-3086646.763702319</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-3052225.473172149</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-3035197.237972149</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-3050184.839472149</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-2998923.891872148</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-3042708.788472149</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-3082952.157772148</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-3247135.612472149</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-3712321.662474568</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-3676294.361674569</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-3693222.025874569</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -37312,14 +37312,10 @@
         <v>-5998696.886752982</v>
       </c>
       <c r="H1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>262</v>
-      </c>
-      <c r="J1119" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
@@ -37352,1550 +37348,1268 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>4275.2715</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>-5994421.615252982</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>262.3</v>
+      </c>
+      <c r="C1122" t="n">
         <v>262</v>
       </c>
-      <c r="K1120" t="inlineStr">
+      <c r="D1122" t="n">
+        <v>262.3</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>262</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>30881.80344258</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>-5963539.811810402</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>4559.8364</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>-5968099.648210403</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>1354.8371</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>-5969454.485310403</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>262</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>9278.482400000001</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>-5960176.002910403</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>8261.164000000001</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>-5968437.166910402</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>5037.53172472</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>-5973474.698635123</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>4784.6747</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>-5973474.698635123</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>151444.31394108</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>-6124919.012576203</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>18442.8511</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>-6143361.863676202</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>141453.2305</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>-6143361.863676202</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>261</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>72012.51405892</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>-6071349.349617283</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>1124.8277</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>-6070224.521917283</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>2324.2568</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>-6067900.265117283</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>2657.3865</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>-6070557.651617283</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>196.9107</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>-6070360.740917283</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>15613.9561</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-6085974.697017283</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>2984.8947</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>-6082989.802317283</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>106643.1879</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>-6189632.990217283</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>28945.1098</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>-6189632.990217283</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>21.9525</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>-6189632.990217283</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>37721.4076</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>-6227354.397817283</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>15164.0054</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-6227354.397817283</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>934.3986</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-6226419.999217283</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>11601.37521947</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-6214818.623997813</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>4456.3352</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-6219274.959197813</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>261</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>63818.0832</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-6219274.959197813</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>39702.20440721</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-6179572.754790602</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>1005.2915</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-6180578.046290603</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>261</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>51571.7913</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-6232149.837590602</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>261</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>14361.1126</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-6217788.724990603</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>23689.0882</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-6241477.813190603</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>21869.303</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-6219608.510190602</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>80155.3187</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-6299763.828890602</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>92468.24370000001</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-6392232.072590603</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>260.9</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>4563.21845216</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-6387668.854138442</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>45628.59980042</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>-6433297.453938862</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
+      <c r="J1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr"/>
+      <c r="L1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>238972.0885</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>-6672269.542438862</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="J1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>4275.2715</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>-5994421.615252982</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>262.3</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>262</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>262.3</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>262</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>30881.80344258</v>
-      </c>
-      <c r="G1122" t="n">
-        <v>-5963539.811810402</v>
-      </c>
-      <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>4559.8364</v>
-      </c>
-      <c r="G1123" t="n">
-        <v>-5968099.648210403</v>
-      </c>
-      <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>261.8</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>1354.8371</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>-5969454.485310403</v>
-      </c>
-      <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>262</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>262</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>262</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>9278.482400000001</v>
-      </c>
-      <c r="G1125" t="n">
-        <v>-5960176.002910403</v>
-      </c>
-      <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>262</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>262</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>8261.164000000001</v>
-      </c>
-      <c r="G1126" t="n">
-        <v>-5968437.166910402</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>5037.53172472</v>
-      </c>
-      <c r="G1127" t="n">
-        <v>-5973474.698635123</v>
-      </c>
-      <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>4784.6747</v>
-      </c>
-      <c r="G1128" t="n">
-        <v>-5973474.698635123</v>
-      </c>
-      <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>151444.31394108</v>
-      </c>
-      <c r="G1129" t="n">
-        <v>-6124919.012576203</v>
-      </c>
-      <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>18442.8511</v>
-      </c>
-      <c r="G1130" t="n">
-        <v>-6143361.863676202</v>
-      </c>
-      <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>141453.2305</v>
-      </c>
-      <c r="G1131" t="n">
-        <v>-6143361.863676202</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1131" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" s="1" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>261</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>72012.51405892</v>
-      </c>
-      <c r="G1132" t="n">
-        <v>-6071349.349617283</v>
-      </c>
-      <c r="H1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1132" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" s="1" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>1124.8277</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>-6070224.521917283</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1133" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>2324.2568</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>-6067900.265117283</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1134" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="J1134" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" s="1" t="n">
-        <v>1133</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>2657.3865</v>
-      </c>
-      <c r="G1135" t="n">
-        <v>-6070557.651617283</v>
-      </c>
-      <c r="H1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1135" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="J1135" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>196.9107</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>-6070360.740917283</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1136" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="J1136" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>15613.9561</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-6085974.697017283</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="J1137" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="1" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>2984.8947</v>
-      </c>
-      <c r="G1138" t="n">
-        <v>-6082989.802317283</v>
-      </c>
-      <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="J1138" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="1" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>106643.1879</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>-6189632.990217283</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="J1139" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="1" t="n">
-        <v>1138</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>28945.1098</v>
-      </c>
-      <c r="G1140" t="n">
-        <v>-6189632.990217283</v>
-      </c>
-      <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" s="1" t="n">
-        <v>1139</v>
-      </c>
-      <c r="B1141" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C1141" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1141" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1141" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F1141" t="n">
-        <v>21.9525</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>-6189632.990217283</v>
-      </c>
-      <c r="H1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1141" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B1142" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="C1142" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="D1142" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="E1142" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>37721.4076</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>-6227354.397817283</v>
-      </c>
-      <c r="H1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1142" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1142" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>15164.0054</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-6227354.397817283</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="J1143" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>934.3986</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-6226419.999217283</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="J1144" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>11601.37521947</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-6214818.623997813</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="J1145" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>4456.3352</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-6219274.959197813</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="J1146" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>261</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>261</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>63818.0832</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-6219274.959197813</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1147" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>39702.20440721</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-6179572.754790602</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1148" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>1005.2915</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-6180578.046290603</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="J1149" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>261</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>261</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>51571.7913</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-6232149.837590602</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="J1150" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>261</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>261</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>14361.1126</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-6217788.724990603</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1151" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>261</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>23689.0882</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-6241477.813190603</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1152" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>21869.303</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-6219608.510190602</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>261</v>
-      </c>
-      <c r="J1153" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>80155.3187</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-6299763.828890602</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1154" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>92468.24370000001</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-6392232.072590603</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="J1155" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>4563.21845216</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-6387668.854138442</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="J1156" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="1" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B1157" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="C1157" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="D1157" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="E1157" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="F1157" t="n">
-        <v>45628.59980042</v>
-      </c>
-      <c r="G1157" t="n">
-        <v>-6433297.453938862</v>
-      </c>
-      <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="J1157" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" s="1" t="n">
-        <v>1156</v>
-      </c>
-      <c r="B1158" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="C1158" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="D1158" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="E1158" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="F1158" t="n">
-        <v>238972.0885</v>
-      </c>
-      <c r="G1158" t="n">
-        <v>-6672269.542438862</v>
-      </c>
-      <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="J1158" t="n">
-        <v>262</v>
-      </c>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38924,14 +38638,10 @@
         <v>-6591190.249338862</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="J1159" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38965,14 +38675,10 @@
         <v>-6671706.642838862</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="J1160" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39011,9 +38717,7 @@
       <c r="I1161" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1161" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39052,9 +38756,7 @@
       <c r="I1162" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1162" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39093,9 +38795,7 @@
       <c r="I1163" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1163" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39134,9 +38834,7 @@
       <c r="I1164" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1164" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39175,9 +38873,7 @@
       <c r="I1165" t="n">
         <v>260.4</v>
       </c>
-      <c r="J1165" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39216,9 +38912,7 @@
       <c r="I1166" t="n">
         <v>260.9</v>
       </c>
-      <c r="J1166" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39257,9 +38951,7 @@
       <c r="I1167" t="n">
         <v>260.9</v>
       </c>
-      <c r="J1167" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39298,9 +38990,7 @@
       <c r="I1168" t="n">
         <v>260.9</v>
       </c>
-      <c r="J1168" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39339,9 +39029,7 @@
       <c r="I1169" t="n">
         <v>261.1</v>
       </c>
-      <c r="J1169" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39380,9 +39068,7 @@
       <c r="I1170" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1170" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39421,9 +39107,7 @@
       <c r="I1171" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1171" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39462,9 +39146,7 @@
       <c r="I1172" t="n">
         <v>260.3</v>
       </c>
-      <c r="J1172" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39503,9 +39185,7 @@
       <c r="I1173" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1173" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39544,9 +39224,7 @@
       <c r="I1174" t="n">
         <v>260.2</v>
       </c>
-      <c r="J1174" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39585,9 +39263,7 @@
       <c r="I1175" t="n">
         <v>260.5</v>
       </c>
-      <c r="J1175" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39626,9 +39302,7 @@
       <c r="I1176" t="n">
         <v>260.6</v>
       </c>
-      <c r="J1176" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39667,9 +39341,7 @@
       <c r="I1177" t="n">
         <v>260.4</v>
       </c>
-      <c r="J1177" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39708,9 +39380,7 @@
       <c r="I1178" t="n">
         <v>260.4</v>
       </c>
-      <c r="J1178" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39749,9 +39419,7 @@
       <c r="I1179" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1179" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39790,9 +39458,7 @@
       <c r="I1180" t="n">
         <v>261</v>
       </c>
-      <c r="J1180" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39831,9 +39497,7 @@
       <c r="I1181" t="n">
         <v>260.7</v>
       </c>
-      <c r="J1181" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39867,12 +39531,12 @@
         <v>-6548519.855303974</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39906,12 +39570,12 @@
         <v>-6533658.374103974</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39945,12 +39609,12 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39984,12 +39648,12 @@
         <v>-6573889.435303974</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40028,9 +39692,7 @@
       <c r="I1186" t="n">
         <v>261.2</v>
       </c>
-      <c r="J1186" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40069,9 +39731,7 @@
       <c r="I1187" t="n">
         <v>261</v>
       </c>
-      <c r="J1187" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40110,9 +39770,7 @@
       <c r="I1188" t="n">
         <v>260.8</v>
       </c>
-      <c r="J1188" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40151,9 +39809,7 @@
       <c r="I1189" t="n">
         <v>260.8</v>
       </c>
-      <c r="J1189" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40192,9 +39848,7 @@
       <c r="I1190" t="n">
         <v>260.8</v>
       </c>
-      <c r="J1190" t="n">
-        <v>262</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
